--- a/public/template_excel/template_nghi_phep.xlsx
+++ b/public/template_excel/template_nghi_phep.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\FESP\fe-service-portal\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B97EA23-0C94-4F9D-901D-AD64F23C7FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B486283-680F-405B-96E4-982F4F350565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>user_code</t>
-  </si>
-  <si>
-    <t>org_position_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+  <si>
+    <t>Bộ phận</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Loại phép</t>
+  </si>
+  <si>
+    <t>Thời gian nghỉ</t>
+  </si>
+  <si>
+    <t>Nghỉ từ ngày</t>
+  </si>
+  <si>
+    <t>Nghỉ đến ngày</t>
+  </si>
+  <si>
+    <t>Lý do</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Việt</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>Cả ngày</t>
+  </si>
+  <si>
+    <t>Buổi sáng</t>
+  </si>
+  <si>
+    <t>Buổi chiều</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>Nghỉ phép năm</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Nghỉ phép không lương</t>
+  </si>
+  <si>
+    <t>Nghỉ ốm</t>
   </si>
 </sst>
 </file>
@@ -62,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,13 +137,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -359,28 +471,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>22757</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{206B846F-62AB-412D-B5C2-ECD98ACC4D35}">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$2:$C$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ABD913FE-FFA9-495D-B0E1-FCE70496BEED}">
+          <x14:formula1>
+            <xm:f>Sheet2!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8513B887-C285-452E-95A6-735F19A2CB84}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C50 C2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE0BBBB-CCBE-4666-ABA4-CCD817BABA78}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>